--- a/tables/xls/it/74_Database mezzi.xlsx
+++ b/tables/xls/it/74_Database mezzi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>ORGANIZZAZIONE</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t>SERVIZIO</t>
-  </si>
-  <si>
-    <t>TURNO</t>
   </si>
   <si>
     <t>NOME REFERENTE</t>
@@ -532,7 +526,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,18 +543,16 @@
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="30.564" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="30.564" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="32.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,12 +600,6 @@
       </c>
       <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +614,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +622,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -685,16 +671,10 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -724,36 +704,30 @@
         <v>9</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="Q2">
-        <v>30</v>
-      </c>
-      <c r="R2">
-        <v>99</v>
-      </c>
-      <c r="S2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -762,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -786,525 +760,483 @@
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
       <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
       <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>255</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>255</v>
+      </c>
+      <c r="F6">
+        <v>255</v>
+      </c>
+      <c r="G6">
+        <v>255</v>
+      </c>
+      <c r="H6">
+        <v>255</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>255</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+      <c r="M6">
+        <v>255</v>
+      </c>
+      <c r="N6">
+        <v>255</v>
+      </c>
+      <c r="O6">
+        <v>255</v>
+      </c>
+      <c r="P6">
+        <v>255</v>
+      </c>
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
-        <v>255</v>
-      </c>
-      <c r="C6">
-        <v>255</v>
-      </c>
-      <c r="D6">
-        <v>255</v>
-      </c>
-      <c r="E6">
-        <v>255</v>
-      </c>
-      <c r="F6">
-        <v>255</v>
-      </c>
-      <c r="G6">
-        <v>255</v>
-      </c>
-      <c r="H6">
-        <v>255</v>
-      </c>
-      <c r="I6">
-        <v>255</v>
-      </c>
-      <c r="J6">
-        <v>255</v>
-      </c>
-      <c r="K6">
-        <v>255</v>
-      </c>
-      <c r="L6">
-        <v>255</v>
-      </c>
-      <c r="M6">
-        <v>255</v>
-      </c>
-      <c r="N6">
-        <v>255</v>
-      </c>
-      <c r="O6">
-        <v>255</v>
-      </c>
-      <c r="P6">
-        <v>255</v>
-      </c>
-      <c r="Q6">
-        <v>255</v>
-      </c>
-      <c r="R6">
-        <v>255</v>
-      </c>
-      <c r="S6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" t="s">
-        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
